--- a/markdown/image/ソフトウェアとハードウェア.xlsx
+++ b/markdown/image/ソフトウェアとハードウェア.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Drive 1st\Programming\基本情報技術者試験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Drive 1st\Programming\tech-notebook\随時、リポジトリの画像フォルダへコピーせよ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="15345" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15345" windowHeight="4785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ソフトウェアとハードウェア" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>汎用言語プログラム</t>
-  </si>
-  <si>
     <t>エディタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -64,20 +61,6 @@
     <t>各種ツール</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンパイラ言語</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アセンブラ言語</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,10 +160,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インタプリタ言語</t>
-    <rPh sb="6" eb="8">
-      <t>ゲンゴ</t>
-    </rPh>
+    <t>アセンブラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンパイラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタプリタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語プロセッサ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -252,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,43 +383,43 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,7 +946,7 @@
                 <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>汎用言語プログラム</a:t>
+              <a:t>言語プロセッサ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
@@ -1143,18 +1135,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="27" name="Picture 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1174,7 +1166,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5743575" y="3486150"/>
+          <a:off x="5743575" y="1276350"/>
           <a:ext cx="3924300" cy="5981700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1321,20 +1313,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1354,7 +1346,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5829300" y="5953125"/>
+          <a:off x="4762500" y="6057900"/>
           <a:ext cx="4619625" cy="5743575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1643,7 +1635,7 @@
   <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1671,7 @@
     </row>
     <row r="9" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1707,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1730,114 +1722,114 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="10" t="s">
+    <row r="10" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="10" t="s">
+    <row r="12" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="10" t="s">
+    <row r="13" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="10" t="s">
+    <row r="14" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="10" t="s">
+    <row r="15" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="10" t="s">
+    <row r="16" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
